--- a/data/dataframe_movies.xlsx
+++ b/data/dataframe_movies.xlsx
@@ -13,15 +13,797 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>webm.480</t>
+  </si>
+  <si>
+    <t>webm.max</t>
+  </si>
+  <si>
+    <t>mp4.480</t>
+  </si>
+  <si>
+    <t>mp4.max</t>
+  </si>
+  <si>
+    <t>steam_appid</t>
+  </si>
+  <si>
+    <t>Plum Bun Reformatted</t>
+  </si>
+  <si>
+    <t>Coming Soon Base</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Size It</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Trailer Principal</t>
+  </si>
+  <si>
+    <t>Grey Eminence - Announcement Trailer</t>
+  </si>
+  <si>
+    <t>ATK宣传片</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Spooky Story</t>
+  </si>
+  <si>
+    <t>The Perfect Pencil - Full Trailer</t>
+  </si>
+  <si>
+    <t>The Perfect Pencil - Announcement Trailer</t>
+  </si>
+  <si>
+    <t>Solitarius Steam Promo Video</t>
+  </si>
+  <si>
+    <t>Gameplay Trailer</t>
+  </si>
+  <si>
+    <t>Bridge to Another World: Christmas Flight Collector's Edition</t>
+  </si>
+  <si>
+    <t>爆破兔头Demo</t>
+  </si>
+  <si>
+    <t>爆破兔头农场更新</t>
+  </si>
+  <si>
+    <t>Gravity Game Release Trailer (2022)</t>
+  </si>
+  <si>
+    <t>Porcelain Tales Trailer</t>
+  </si>
+  <si>
+    <t>Sugarcane Empire Trailer 12-23-2021</t>
+  </si>
+  <si>
+    <t>Jigsaw Puzzle Beach Season</t>
+  </si>
+  <si>
+    <t>Royal Jigsaw</t>
+  </si>
+  <si>
+    <t>Holiday Jigsaw Christmas</t>
+  </si>
+  <si>
+    <t>Pirate's Solitaire</t>
+  </si>
+  <si>
+    <t>Kindred Fates: 2021 Single-Player Preview</t>
+  </si>
+  <si>
+    <t>movie1</t>
+  </si>
+  <si>
+    <t>Go Fetch! Launch Trailer</t>
+  </si>
+  <si>
+    <t>rewr</t>
+  </si>
+  <si>
+    <t>audition-jp</t>
+  </si>
+  <si>
+    <t>audition-cn</t>
+  </si>
+  <si>
+    <t>audition-en</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Early Development Trailer</t>
+  </si>
+  <si>
+    <t>QuitToday_DemoTrailer_20200211</t>
+  </si>
+  <si>
+    <t>Teaser gameplay</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>SantaJump</t>
+  </si>
+  <si>
+    <t>DRAWER GAMEPLAY TRAILER</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867349/movie.293x165.jpg?t=1641490802</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867225/movie.293x165.jpg?t=1640928256</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867133/movie.293x165.jpg?t=1640894910</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866936/movie.293x165.jpg?t=1641459443</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256869745/movie.293x165.jpg?t=1642558739</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866533/movie.293x165.jpg?t=1641017485</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256869069/movie.293x165.jpg?t=1642683830</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256872405/movie.293x165.jpg?t=1644493530</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256870217/movie.293x165.jpg?t=1642820940</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866859/movie.293x165.jpg?t=1640632850</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256869343/movie.293x165.jpg?t=1642568096</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256871481/movie.293x165.jpg?t=1643821711</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256871479/movie.293x165.jpg?t=1643821716</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867068/movie.293x165.jpg?t=1640894094</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867277/movie.293x165.jpg?t=1642196067</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866434/movie.293x165.jpg?t=1641331546</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866442/movie.293x165.jpg?t=1641399863</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256871250/movie.293x165.jpg?t=1643502678</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867511/movie.293x165.jpg?t=1641694713</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256870174/movie.293x165.jpg?t=1643975101</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866470/movie.293x165.jpg?t=1640881772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256875897/movie.293x165.jpg?t=1646115605</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256876042/movie.293x165.jpg?t=1646632998</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256877878/movie.293x165.jpg?t=1647501428</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256877364/movie.293x165.jpg?t=1647487293</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867275/movie.293x165.jpg?t=1640991926</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866323/movie.293x165.jpg?t=1641033490</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866314/movie.293x165.jpg?t=1640973757</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866318/movie.293x165.jpg?t=1640392014</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256870169/movie.293x165.jpg?t=1642839889</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256870168/movie.293x165.jpg?t=1642839893</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256870167/movie.293x165.jpg?t=1642839897</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256874083/movie.293x165.jpg?t=1645430934</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256872394/movie.293x165.jpg?t=1644387634</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256873642/movie.293x165.jpg?t=1644995980</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256878790/movie.293x165.jpg?t=1647870476</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866763/movie.293x165.jpg?t=1640802698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256869308/movie.293x165.jpg?t=1642236743</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867237/movie.293x165.jpg?t=1641604265</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256866486/movie.293x165.jpg?t=1640860060</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/256867041/movie.293x165.jpg?t=1643213914</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867349/movie480_vp9.webm?t=1641490802</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867225/movie480_vp9.webm?t=1640928256</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867133/movie480_vp9.webm?t=1640894910</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866936/movie480_vp9.webm?t=1641459443</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869745/movie480_vp9.webm?t=1642558739</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866533/movie480_vp9.webm?t=1641017485</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869069/movie480_vp9.webm?t=1642683830</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872405/movie480_vp9.webm?t=1644493530</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870217/movie480_vp9.webm?t=1642820940</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866859/movie480_vp9.webm?t=1640632850</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869343/movie480_vp9.webm?t=1642568096</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871481/movie480_vp9.webm?t=1643821711</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871479/movie480_vp9.webm?t=1643821716</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867068/movie480_vp9.webm?t=1640894094</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867277/movie480_vp9.webm?t=1642196067</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866434/movie480_vp9.webm?t=1641331546</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866442/movie480_vp9.webm?t=1641399863</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871250/movie480_vp9.webm?t=1643502678</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867511/movie480_vp9.webm?t=1641694713</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870174/movie480_vp9.webm?t=1643975101</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866470/movie480_vp9.webm?t=1640881772</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256875897/movie480_vp9.webm?t=1646115605</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256876042/movie480_vp9.webm?t=1646632998</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877878/movie480_vp9.webm?t=1647501428</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877364/movie480_vp9.webm?t=1647487293</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867275/movie480_vp9.webm?t=1640991926</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866323/movie480_vp9.webm?t=1641033490</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866314/movie480_vp9.webm?t=1640973757</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866318/movie480_vp9.webm?t=1640392014</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870169/movie480_vp9.webm?t=1642839889</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870168/movie480_vp9.webm?t=1642839893</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870167/movie480_vp9.webm?t=1642839897</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256874083/movie480_vp9.webm?t=1645430934</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872394/movie480_vp9.webm?t=1644387634</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256873642/movie480_vp9.webm?t=1644995980</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256878790/movie480_vp9.webm?t=1647870476</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866763/movie480_vp9.webm?t=1640802698</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869308/movie480_vp9.webm?t=1642236743</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867237/movie480_vp9.webm?t=1641604265</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866486/movie480_vp9.webm?t=1640860060</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867041/movie480_vp9.webm?t=1643213914</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867349/movie_max_vp9.webm?t=1641490802</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867225/movie_max_vp9.webm?t=1640928256</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867133/movie_max_vp9.webm?t=1640894910</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866936/movie_max_vp9.webm?t=1641459443</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869745/movie_max_vp9.webm?t=1642558739</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866533/movie_max_vp9.webm?t=1641017485</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869069/movie_max_vp9.webm?t=1642683830</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872405/movie_max_vp9.webm?t=1644493530</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870217/movie_max_vp9.webm?t=1642820940</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866859/movie_max_vp9.webm?t=1640632850</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869343/movie_max_vp9.webm?t=1642568096</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871481/movie_max_vp9.webm?t=1643821711</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871479/movie_max_vp9.webm?t=1643821716</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867068/movie_max_vp9.webm?t=1640894094</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867277/movie_max_vp9.webm?t=1642196067</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866434/movie_max_vp9.webm?t=1641331546</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866442/movie_max_vp9.webm?t=1641399863</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871250/movie_max_vp9.webm?t=1643502678</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867511/movie_max_vp9.webm?t=1641694713</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870174/movie_max_vp9.webm?t=1643975101</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866470/movie_max_vp9.webm?t=1640881772</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256875897/movie_max_vp9.webm?t=1646115605</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256876042/movie_max_vp9.webm?t=1646632998</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877878/movie_max_vp9.webm?t=1647501428</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877364/movie_max_vp9.webm?t=1647487293</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867275/movie_max_vp9.webm?t=1640991926</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866323/movie_max_vp9.webm?t=1641033490</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866314/movie_max_vp9.webm?t=1640973757</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866318/movie_max_vp9.webm?t=1640392014</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870169/movie_max_vp9.webm?t=1642839889</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870168/movie_max_vp9.webm?t=1642839893</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870167/movie_max_vp9.webm?t=1642839897</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256874083/movie_max_vp9.webm?t=1645430934</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872394/movie_max_vp9.webm?t=1644387634</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256873642/movie_max_vp9.webm?t=1644995980</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256878790/movie_max_vp9.webm?t=1647870476</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866763/movie_max_vp9.webm?t=1640802698</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869308/movie_max_vp9.webm?t=1642236743</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867237/movie_max_vp9.webm?t=1641604265</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866486/movie_max_vp9.webm?t=1640860060</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867041/movie_max_vp9.webm?t=1643213914</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867349/movie480.mp4?t=1641490802</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867225/movie480.mp4?t=1640928256</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867133/movie480.mp4?t=1640894910</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866936/movie480.mp4?t=1641459443</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869745/movie480.mp4?t=1642558739</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866533/movie480.mp4?t=1641017485</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869069/movie480.mp4?t=1642683830</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872405/movie480.mp4?t=1644493530</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870217/movie480.mp4?t=1642820940</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866859/movie480.mp4?t=1640632850</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869343/movie480.mp4?t=1642568096</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871481/movie480.mp4?t=1643821711</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871479/movie480.mp4?t=1643821716</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867068/movie480.mp4?t=1640894094</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867277/movie480.mp4?t=1642196067</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866434/movie480.mp4?t=1641331546</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866442/movie480.mp4?t=1641399863</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871250/movie480.mp4?t=1643502678</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867511/movie480.mp4?t=1641694713</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870174/movie480.mp4?t=1643975101</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866470/movie480.mp4?t=1640881772</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256875897/movie480.mp4?t=1646115605</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256876042/movie480.mp4?t=1646632998</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877878/movie480.mp4?t=1647501428</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877364/movie480.mp4?t=1647487293</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867275/movie480.mp4?t=1640991926</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866323/movie480.mp4?t=1641033490</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866314/movie480.mp4?t=1640973757</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866318/movie480.mp4?t=1640392014</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870169/movie480.mp4?t=1642839889</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870168/movie480.mp4?t=1642839893</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870167/movie480.mp4?t=1642839897</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256874083/movie480.mp4?t=1645430934</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872394/movie480.mp4?t=1644387634</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256873642/movie480.mp4?t=1644995980</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256878790/movie480.mp4?t=1647870476</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866763/movie480.mp4?t=1640802698</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869308/movie480.mp4?t=1642236743</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867237/movie480.mp4?t=1641604265</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866486/movie480.mp4?t=1640860060</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867041/movie480.mp4?t=1643213914</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867349/movie_max.mp4?t=1641490802</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867225/movie_max.mp4?t=1640928256</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867133/movie_max.mp4?t=1640894910</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866936/movie_max.mp4?t=1641459443</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869745/movie_max.mp4?t=1642558739</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866533/movie_max.mp4?t=1641017485</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869069/movie_max.mp4?t=1642683830</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872405/movie_max.mp4?t=1644493530</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870217/movie_max.mp4?t=1642820940</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866859/movie_max.mp4?t=1640632850</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869343/movie_max.mp4?t=1642568096</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871481/movie_max.mp4?t=1643821711</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871479/movie_max.mp4?t=1643821716</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867068/movie_max.mp4?t=1640894094</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867277/movie_max.mp4?t=1642196067</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866434/movie_max.mp4?t=1641331546</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866442/movie_max.mp4?t=1641399863</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256871250/movie_max.mp4?t=1643502678</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867511/movie_max.mp4?t=1641694713</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870174/movie_max.mp4?t=1643975101</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866470/movie_max.mp4?t=1640881772</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256875897/movie_max.mp4?t=1646115605</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256876042/movie_max.mp4?t=1646632998</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877878/movie_max.mp4?t=1647501428</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256877364/movie_max.mp4?t=1647487293</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867275/movie_max.mp4?t=1640991926</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866323/movie_max.mp4?t=1641033490</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866314/movie_max.mp4?t=1640973757</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866318/movie_max.mp4?t=1640392014</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870169/movie_max.mp4?t=1642839889</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870168/movie_max.mp4?t=1642839893</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256870167/movie_max.mp4?t=1642839897</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256874083/movie_max.mp4?t=1645430934</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256872394/movie_max.mp4?t=1644387634</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256873642/movie_max.mp4?t=1644995980</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256878790/movie_max.mp4?t=1647870476</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866763/movie_max.mp4?t=1640802698</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256869308/movie_max.mp4?t=1642236743</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867237/movie_max.mp4?t=1641604265</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256866486/movie_max.mp4?t=1640860060</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256867041/movie_max.mp4?t=1643213914</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,14 +822,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -340,12 +1146,1561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>256867349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>256867225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>256867133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>256866936</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>256869745</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>256866533</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>256869069</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>256872405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>256870217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>256866859</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>256869343</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J12">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>256871481</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>256871479</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>256867068</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>256867277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>256866434</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>256866442</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>256871250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>256867511</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>256870174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>256866470</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>256875897</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>256876042</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>256877878</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>256877364</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>256867275</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>256866323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>256866314</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>256866318</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>256870169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>256870168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>256870167</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>256874083</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>256872394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>256873642</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>256878790</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>256866763</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>256869308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>256867237</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J40">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>256866486</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>256867041</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42">
+        <v>1858620</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="I3" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="F4" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="H4" r:id="rId14"/>
+    <hyperlink ref="I4" r:id="rId15"/>
+    <hyperlink ref="D5" r:id="rId16"/>
+    <hyperlink ref="F5" r:id="rId17"/>
+    <hyperlink ref="G5" r:id="rId18"/>
+    <hyperlink ref="H5" r:id="rId19"/>
+    <hyperlink ref="I5" r:id="rId20"/>
+    <hyperlink ref="D6" r:id="rId21"/>
+    <hyperlink ref="F6" r:id="rId22"/>
+    <hyperlink ref="G6" r:id="rId23"/>
+    <hyperlink ref="H6" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="D7" r:id="rId26"/>
+    <hyperlink ref="F7" r:id="rId27"/>
+    <hyperlink ref="G7" r:id="rId28"/>
+    <hyperlink ref="H7" r:id="rId29"/>
+    <hyperlink ref="I7" r:id="rId30"/>
+    <hyperlink ref="D8" r:id="rId31"/>
+    <hyperlink ref="F8" r:id="rId32"/>
+    <hyperlink ref="G8" r:id="rId33"/>
+    <hyperlink ref="H8" r:id="rId34"/>
+    <hyperlink ref="I8" r:id="rId35"/>
+    <hyperlink ref="D9" r:id="rId36"/>
+    <hyperlink ref="F9" r:id="rId37"/>
+    <hyperlink ref="G9" r:id="rId38"/>
+    <hyperlink ref="H9" r:id="rId39"/>
+    <hyperlink ref="I9" r:id="rId40"/>
+    <hyperlink ref="D10" r:id="rId41"/>
+    <hyperlink ref="F10" r:id="rId42"/>
+    <hyperlink ref="G10" r:id="rId43"/>
+    <hyperlink ref="H10" r:id="rId44"/>
+    <hyperlink ref="I10" r:id="rId45"/>
+    <hyperlink ref="D11" r:id="rId46"/>
+    <hyperlink ref="F11" r:id="rId47"/>
+    <hyperlink ref="G11" r:id="rId48"/>
+    <hyperlink ref="H11" r:id="rId49"/>
+    <hyperlink ref="I11" r:id="rId50"/>
+    <hyperlink ref="D12" r:id="rId51"/>
+    <hyperlink ref="F12" r:id="rId52"/>
+    <hyperlink ref="G12" r:id="rId53"/>
+    <hyperlink ref="H12" r:id="rId54"/>
+    <hyperlink ref="I12" r:id="rId55"/>
+    <hyperlink ref="D13" r:id="rId56"/>
+    <hyperlink ref="F13" r:id="rId57"/>
+    <hyperlink ref="G13" r:id="rId58"/>
+    <hyperlink ref="H13" r:id="rId59"/>
+    <hyperlink ref="I13" r:id="rId60"/>
+    <hyperlink ref="D14" r:id="rId61"/>
+    <hyperlink ref="F14" r:id="rId62"/>
+    <hyperlink ref="G14" r:id="rId63"/>
+    <hyperlink ref="H14" r:id="rId64"/>
+    <hyperlink ref="I14" r:id="rId65"/>
+    <hyperlink ref="D15" r:id="rId66"/>
+    <hyperlink ref="F15" r:id="rId67"/>
+    <hyperlink ref="G15" r:id="rId68"/>
+    <hyperlink ref="H15" r:id="rId69"/>
+    <hyperlink ref="I15" r:id="rId70"/>
+    <hyperlink ref="D16" r:id="rId71"/>
+    <hyperlink ref="F16" r:id="rId72"/>
+    <hyperlink ref="G16" r:id="rId73"/>
+    <hyperlink ref="H16" r:id="rId74"/>
+    <hyperlink ref="I16" r:id="rId75"/>
+    <hyperlink ref="D17" r:id="rId76"/>
+    <hyperlink ref="F17" r:id="rId77"/>
+    <hyperlink ref="G17" r:id="rId78"/>
+    <hyperlink ref="H17" r:id="rId79"/>
+    <hyperlink ref="I17" r:id="rId80"/>
+    <hyperlink ref="D18" r:id="rId81"/>
+    <hyperlink ref="F18" r:id="rId82"/>
+    <hyperlink ref="G18" r:id="rId83"/>
+    <hyperlink ref="H18" r:id="rId84"/>
+    <hyperlink ref="I18" r:id="rId85"/>
+    <hyperlink ref="D19" r:id="rId86"/>
+    <hyperlink ref="F19" r:id="rId87"/>
+    <hyperlink ref="G19" r:id="rId88"/>
+    <hyperlink ref="H19" r:id="rId89"/>
+    <hyperlink ref="I19" r:id="rId90"/>
+    <hyperlink ref="D20" r:id="rId91"/>
+    <hyperlink ref="F20" r:id="rId92"/>
+    <hyperlink ref="G20" r:id="rId93"/>
+    <hyperlink ref="H20" r:id="rId94"/>
+    <hyperlink ref="I20" r:id="rId95"/>
+    <hyperlink ref="D21" r:id="rId96"/>
+    <hyperlink ref="F21" r:id="rId97"/>
+    <hyperlink ref="G21" r:id="rId98"/>
+    <hyperlink ref="H21" r:id="rId99"/>
+    <hyperlink ref="I21" r:id="rId100"/>
+    <hyperlink ref="D22" r:id="rId101"/>
+    <hyperlink ref="F22" r:id="rId102"/>
+    <hyperlink ref="G22" r:id="rId103"/>
+    <hyperlink ref="H22" r:id="rId104"/>
+    <hyperlink ref="I22" r:id="rId105"/>
+    <hyperlink ref="D23" r:id="rId106"/>
+    <hyperlink ref="F23" r:id="rId107"/>
+    <hyperlink ref="G23" r:id="rId108"/>
+    <hyperlink ref="H23" r:id="rId109"/>
+    <hyperlink ref="I23" r:id="rId110"/>
+    <hyperlink ref="D24" r:id="rId111"/>
+    <hyperlink ref="F24" r:id="rId112"/>
+    <hyperlink ref="G24" r:id="rId113"/>
+    <hyperlink ref="H24" r:id="rId114"/>
+    <hyperlink ref="I24" r:id="rId115"/>
+    <hyperlink ref="D25" r:id="rId116"/>
+    <hyperlink ref="F25" r:id="rId117"/>
+    <hyperlink ref="G25" r:id="rId118"/>
+    <hyperlink ref="H25" r:id="rId119"/>
+    <hyperlink ref="I25" r:id="rId120"/>
+    <hyperlink ref="D26" r:id="rId121"/>
+    <hyperlink ref="F26" r:id="rId122"/>
+    <hyperlink ref="G26" r:id="rId123"/>
+    <hyperlink ref="H26" r:id="rId124"/>
+    <hyperlink ref="I26" r:id="rId125"/>
+    <hyperlink ref="D27" r:id="rId126"/>
+    <hyperlink ref="F27" r:id="rId127"/>
+    <hyperlink ref="G27" r:id="rId128"/>
+    <hyperlink ref="H27" r:id="rId129"/>
+    <hyperlink ref="I27" r:id="rId130"/>
+    <hyperlink ref="D28" r:id="rId131"/>
+    <hyperlink ref="F28" r:id="rId132"/>
+    <hyperlink ref="G28" r:id="rId133"/>
+    <hyperlink ref="H28" r:id="rId134"/>
+    <hyperlink ref="I28" r:id="rId135"/>
+    <hyperlink ref="D29" r:id="rId136"/>
+    <hyperlink ref="F29" r:id="rId137"/>
+    <hyperlink ref="G29" r:id="rId138"/>
+    <hyperlink ref="H29" r:id="rId139"/>
+    <hyperlink ref="I29" r:id="rId140"/>
+    <hyperlink ref="D30" r:id="rId141"/>
+    <hyperlink ref="F30" r:id="rId142"/>
+    <hyperlink ref="G30" r:id="rId143"/>
+    <hyperlink ref="H30" r:id="rId144"/>
+    <hyperlink ref="I30" r:id="rId145"/>
+    <hyperlink ref="D31" r:id="rId146"/>
+    <hyperlink ref="F31" r:id="rId147"/>
+    <hyperlink ref="G31" r:id="rId148"/>
+    <hyperlink ref="H31" r:id="rId149"/>
+    <hyperlink ref="I31" r:id="rId150"/>
+    <hyperlink ref="D32" r:id="rId151"/>
+    <hyperlink ref="F32" r:id="rId152"/>
+    <hyperlink ref="G32" r:id="rId153"/>
+    <hyperlink ref="H32" r:id="rId154"/>
+    <hyperlink ref="I32" r:id="rId155"/>
+    <hyperlink ref="D33" r:id="rId156"/>
+    <hyperlink ref="F33" r:id="rId157"/>
+    <hyperlink ref="G33" r:id="rId158"/>
+    <hyperlink ref="H33" r:id="rId159"/>
+    <hyperlink ref="I33" r:id="rId160"/>
+    <hyperlink ref="D34" r:id="rId161"/>
+    <hyperlink ref="F34" r:id="rId162"/>
+    <hyperlink ref="G34" r:id="rId163"/>
+    <hyperlink ref="H34" r:id="rId164"/>
+    <hyperlink ref="I34" r:id="rId165"/>
+    <hyperlink ref="D35" r:id="rId166"/>
+    <hyperlink ref="F35" r:id="rId167"/>
+    <hyperlink ref="G35" r:id="rId168"/>
+    <hyperlink ref="H35" r:id="rId169"/>
+    <hyperlink ref="I35" r:id="rId170"/>
+    <hyperlink ref="D36" r:id="rId171"/>
+    <hyperlink ref="F36" r:id="rId172"/>
+    <hyperlink ref="G36" r:id="rId173"/>
+    <hyperlink ref="H36" r:id="rId174"/>
+    <hyperlink ref="I36" r:id="rId175"/>
+    <hyperlink ref="D37" r:id="rId176"/>
+    <hyperlink ref="F37" r:id="rId177"/>
+    <hyperlink ref="G37" r:id="rId178"/>
+    <hyperlink ref="H37" r:id="rId179"/>
+    <hyperlink ref="I37" r:id="rId180"/>
+    <hyperlink ref="D38" r:id="rId181"/>
+    <hyperlink ref="F38" r:id="rId182"/>
+    <hyperlink ref="G38" r:id="rId183"/>
+    <hyperlink ref="H38" r:id="rId184"/>
+    <hyperlink ref="I38" r:id="rId185"/>
+    <hyperlink ref="D39" r:id="rId186"/>
+    <hyperlink ref="F39" r:id="rId187"/>
+    <hyperlink ref="G39" r:id="rId188"/>
+    <hyperlink ref="H39" r:id="rId189"/>
+    <hyperlink ref="I39" r:id="rId190"/>
+    <hyperlink ref="D40" r:id="rId191"/>
+    <hyperlink ref="F40" r:id="rId192"/>
+    <hyperlink ref="G40" r:id="rId193"/>
+    <hyperlink ref="H40" r:id="rId194"/>
+    <hyperlink ref="I40" r:id="rId195"/>
+    <hyperlink ref="D41" r:id="rId196"/>
+    <hyperlink ref="F41" r:id="rId197"/>
+    <hyperlink ref="G41" r:id="rId198"/>
+    <hyperlink ref="H41" r:id="rId199"/>
+    <hyperlink ref="I41" r:id="rId200"/>
+    <hyperlink ref="D42" r:id="rId201"/>
+    <hyperlink ref="F42" r:id="rId202"/>
+    <hyperlink ref="G42" r:id="rId203"/>
+    <hyperlink ref="H42" r:id="rId204"/>
+    <hyperlink ref="I42" r:id="rId205"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>